--- a/src/main/resources/nhs-dmn/icf_Interpretatie_CF.xlsx
+++ b/src/main/resources/nhs-dmn/icf_Interpretatie_CF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\han\git\rivm\nhs\dmn\nhs-business\src\main\resources\nhs-dmn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389E7D17-4E6B-47D2-87B0-3EB30EA8E2C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557DBC77-015F-4A0E-A71C-6AC9D311013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37095" yWindow="-420" windowWidth="21600" windowHeight="11295" tabRatio="834" xr2:uid="{4203C9A5-FA6C-4E14-8325-EE7186AD0D41}"/>
+    <workbookView xWindow="30705" yWindow="-210" windowWidth="21600" windowHeight="11295" tabRatio="834" xr2:uid="{4203C9A5-FA6C-4E14-8325-EE7186AD0D41}"/>
   </bookViews>
   <sheets>
     <sheet name="InterpretatieCF" sheetId="25" r:id="rId1"/>
@@ -119,28 +119,28 @@
     <t>InterpretatieEGABlad1</t>
   </si>
   <si>
-    <t>HPM.waarde("IRT")</t>
-  </si>
-  <si>
-    <t>HPM.waarde("PAP")</t>
-  </si>
-  <si>
-    <t>HPM.waarde("DNA_N")</t>
-  </si>
-  <si>
-    <t>HPM.waarde("DNA_imut1")</t>
-  </si>
-  <si>
-    <t>HPM.waarde("DNA_imut2")</t>
-  </si>
-  <si>
-    <t>HPM.waarde("EGA_N")</t>
-  </si>
-  <si>
-    <t>HPM.waarde("EGA_imut1")</t>
-  </si>
-  <si>
-    <t>HPM.waarde("EGA_imut2")</t>
+    <t>HPM.waardeString("DNA_imut1")</t>
+  </si>
+  <si>
+    <t>HPM.waardeString("DNA_imut2")</t>
+  </si>
+  <si>
+    <t>HPM.waardeNum("DNA_N")</t>
+  </si>
+  <si>
+    <t>HPM.waardeNum("PAP")</t>
+  </si>
+  <si>
+    <t>HPM.waardeNum("IRT")</t>
+  </si>
+  <si>
+    <t>HPM.waardeNum("EGA_N")</t>
+  </si>
+  <si>
+    <t>HPM.waardeString("EGA_imut1")</t>
+  </si>
+  <si>
+    <t>HPM.waardeString("EGA_imut2")</t>
   </si>
 </sst>
 </file>
@@ -616,8 +616,8 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,19 +631,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -1564,13 +1564,13 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1966,12 +1966,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/main/resources/nhs-dmn/icf_Interpretatie_CF.xlsx
+++ b/src/main/resources/nhs-dmn/icf_Interpretatie_CF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\han\git\rivm\nhs\dmn\nhs-business\src\main\resources\nhs-dmn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557DBC77-015F-4A0E-A71C-6AC9D311013B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02497F0B-C453-43ED-B74E-9F6C77B8CB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="-210" windowWidth="21600" windowHeight="11295" tabRatio="834" xr2:uid="{4203C9A5-FA6C-4E14-8325-EE7186AD0D41}"/>
+    <workbookView xWindow="31395" yWindow="480" windowWidth="21600" windowHeight="11295" tabRatio="834" xr2:uid="{4203C9A5-FA6C-4E14-8325-EE7186AD0D41}"/>
   </bookViews>
   <sheets>
     <sheet name="InterpretatieCF" sheetId="25" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="26">
   <si>
     <t>&lt; 60</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>"A"</t>
-  </si>
-  <si>
-    <t>InterpretatieEGA</t>
   </si>
   <si>
     <t>not(["A","O","N"])</t>
@@ -617,7 +614,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,19 +628,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -726,7 +723,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -766,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -780,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>4</v>
@@ -883,7 +880,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>1</v>
@@ -983,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>1</v>
@@ -1083,7 +1080,7 @@
         <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>1</v>
@@ -1120,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>4</v>
@@ -1157,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
@@ -1246,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1266,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,7 +1283,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,7 +1294,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>4</v>
@@ -1366,7 +1363,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1406,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1417,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>4</v>
@@ -1576,16 +1573,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -1722,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>1</v>
@@ -1792,7 +1789,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>1</v>
@@ -1862,7 +1859,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>1</v>
@@ -1887,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
@@ -1912,7 +1909,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
@@ -1977,13 +1974,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,7 +2032,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
@@ -2090,7 +2087,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>1</v>
@@ -2145,7 +2142,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>1</v>
@@ -2164,7 +2161,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
